--- a/Spectro_Group_Equipment.xlsx
+++ b/Spectro_Group_Equipment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="117">
   <si>
     <t>Name</t>
   </si>
@@ -348,6 +348,66 @@
   </si>
   <si>
     <t>Paramount ME</t>
+  </si>
+  <si>
+    <t>Frank Parks</t>
+  </si>
+  <si>
+    <t>8" f/5 Newtonian</t>
+  </si>
+  <si>
+    <t>Astrophysics Mach 1</t>
+  </si>
+  <si>
+    <t>LiISA</t>
+  </si>
+  <si>
+    <t>ATIK 460ex</t>
+  </si>
+  <si>
+    <t>ATIK 414</t>
+  </si>
+  <si>
+    <t>ACP with APCC</t>
+  </si>
+  <si>
+    <t>AstroPlanner + SkyX</t>
+  </si>
+  <si>
+    <t>Forrest Simms (Woody)</t>
+  </si>
+  <si>
+    <t>PlaneWave CDK14 + TV85</t>
+  </si>
+  <si>
+    <t>Astro-Physics AP1100GTO</t>
+  </si>
+  <si>
+    <t>LISA + Starlight Xpress
+Filter Wheel on TV85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATIK414ex on LISA
+ATIK 460ex on TV85
+</t>
+  </si>
+  <si>
+    <t>Lodestar x2</t>
+  </si>
+  <si>
+    <t>MaximDL 6.20  + APCC Pro</t>
+  </si>
+  <si>
+    <t>Maxim DL 6.20</t>
+  </si>
+  <si>
+    <t>AstroPlanner + Paolo Berardi
+ Miles_Search excel spreadsheet</t>
+  </si>
+  <si>
+    <t>ISIS
+Demetra
+Rspec</t>
   </si>
 </sst>
 </file>
@@ -717,22 +777,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="24.140625" customWidth="1"/>
     <col min="9" max="9" width="7.28515625" customWidth="1"/>
-    <col min="10" max="10" width="26.5703125" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1120,8 +1183,76 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
     <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/Spectro_Group_Equipment.xlsx
+++ b/Spectro_Group_Equipment.xlsx
@@ -459,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -474,6 +474,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,7 +784,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,6 +805,9 @@
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="5" t="s">
         <v>74</v>
+      </c>
+      <c r="D1" s="6">
+        <v>43885</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
